--- a/mes-prm-core/表结构设计/巡检区域/巡检区域_王珂.xlsx
+++ b/mes-prm-core/表结构设计/巡检区域/巡检区域_王珂.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WangYang\Desktop\跪也\巡检表结构设计\区域定义\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{449C60A7-6263-42F7-A5AA-0DB67276796F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17715" windowHeight="7440"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17712" windowHeight="7440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,49 +25,41 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="69">
   <si>
     <t>数据库表名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ER_REGION</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>VO全路径</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>字段编码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>字段名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>字段类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>是否可空</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>默认值</t>
     <rPh sb="0" eb="1">
       <t>mo'ren'zhi</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>区域名称</t>
@@ -76,23 +69,19 @@
     <rPh sb="2" eb="3">
       <t>ming'cheng</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>varhcar2(50)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1=未启用，2=已启用，3=已停用，</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>varhcar2(36)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>设备区域</t>
@@ -102,209 +91,228 @@
     <rPh sb="2" eb="3">
       <t>ming'cheng</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>code</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>区域编码</t>
     <rPh sb="0" eb="1">
       <t>gang'wei</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2(36)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>主键</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>char(36)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tenantid</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>租户（云数据中心）主键</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2(36)</t>
-  </si>
-  <si>
-    <t>sysid</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>应用编码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2(50)</t>
-  </si>
-  <si>
-    <t>orgid</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>工厂</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>orgid_name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>工厂名称</t>
-    <rPh sb="0" eb="1">
-      <t>gong'chang'ming'cheng</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2(50)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <rPh sb="0" eb="1">
-      <t>fou</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ts</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间戳</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TIMESTAMP(6)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dr</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除标记</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-未删除，1-已删除</t>
-    <rPh sb="2" eb="3">
-      <t>wei'shan'chu</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>yi'shan'chu</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>creator</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>creationtime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TIMESTAMP(6)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>modifier</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>最终修改人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <rPh sb="0" eb="1">
-      <t>shi</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>modifiedtime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>最终修改时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TIMESTAMP(6)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>fbillstatus</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>单据状态</t>
     <rPh sb="0" eb="1">
       <t>xiang'mu</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pk_equip</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pk_equip_name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>设备区域名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>系统自动生成（20位长），</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0=已停用，1=已启用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varhcar2(150)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(108)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRM_REGION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属车间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属车间名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属工段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属工段名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENABLESTATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK_EQUIP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK_EQUIP_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK_WORKSHOP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK_WORKSHOP_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK_SECTION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK_SECTION_NAMW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TENANTID</t>
+  </si>
+  <si>
+    <t>租户主键</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2 (36)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYSID</t>
+  </si>
+  <si>
+    <t>应用编码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2 (50)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORGID</t>
+  </si>
+  <si>
+    <t>工厂</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORGID_NAME</t>
+  </si>
+  <si>
+    <t>工厂名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DR</t>
+  </si>
+  <si>
+    <t>删除标记</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0=未删除，1=已删除</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TS</t>
+  </si>
+  <si>
+    <t>时间戳</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>timestamp(6)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATOR</t>
+  </si>
+  <si>
+    <t>创建人</t>
+  </si>
+  <si>
+    <t>CREATOR_NAME</t>
+  </si>
+  <si>
+    <t>创建人名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATIONTIME</t>
+  </si>
+  <si>
+    <t>创建时间</t>
+  </si>
+  <si>
+    <t>MODIFIER</t>
+  </si>
+  <si>
+    <t>最后修改人</t>
+  </si>
+  <si>
+    <t>MODIFIER_NAME</t>
+  </si>
+  <si>
+    <t>最后修改人名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(50)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MODIFIEDTIME</t>
+  </si>
+  <si>
+    <t>最后修改时间</t>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -314,16 +322,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="华文中宋"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -420,41 +436,42 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -736,333 +753,412 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5" customWidth="1"/>
-    <col min="2" max="2" width="21.75" customWidth="1"/>
-    <col min="3" max="3" width="17.125" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
+    <col min="2" max="2" width="21.77734375" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="9"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="8"/>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="12"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="11"/>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="C8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5" t="s">
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="6">
+        <v>1</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
+      <c r="C22" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A10" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A11" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A12" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A13" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A14" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A15" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="5" t="s">
+      <c r="D22" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="5">
-        <v>0</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A16" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A17" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A18" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A19" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
+      <c r="D23" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>